--- a/jpcore-r4/feature/注射カテゴリ追加/ValueSet-jp-condition-severity-vs.xlsx
+++ b/jpcore-r4/feature/注射カテゴリ追加/ValueSet-jp-condition-severity-vs.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
